--- a/1_Result_Tables/3_naive_forecaster_qoq_evaluations_20221_21001/AVERAGE_10_9_qoq_forecast_error_table_latest_eval_20221_21001.xlsx
+++ b/1_Result_Tables/3_naive_forecaster_qoq_evaluations_20221_21001/AVERAGE_10_9_qoq_forecast_error_table_latest_eval_20221_21001.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.1724578193461484</v>
+        <v>0.2400528213269932</v>
       </c>
       <c r="C2">
-        <v>0.39058239716261</v>
+        <v>0.3753181292658889</v>
       </c>
       <c r="D2">
-        <v>0.3033305724894426</v>
+        <v>0.2348887549825461</v>
       </c>
       <c r="E2">
-        <v>0.550754548314803</v>
+        <v>0.4846532316848265</v>
       </c>
       <c r="F2">
-        <v>0.5414156770869448</v>
+        <v>0.4369199514236829</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.2400528213269932</v>
+        <v>0.273599112058131</v>
       </c>
       <c r="C3">
-        <v>0.3753181292658889</v>
+        <v>0.3783303919539526</v>
       </c>
       <c r="D3">
-        <v>0.2348887549825461</v>
+        <v>0.2266048251956944</v>
       </c>
       <c r="E3">
-        <v>0.4846532316848265</v>
+        <v>0.4760302776039508</v>
       </c>
       <c r="F3">
-        <v>0.4369199514236829</v>
+        <v>0.4054553575916278</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.273599112058131</v>
+        <v>0.323052878118673</v>
       </c>
       <c r="C4">
-        <v>0.3783303919539526</v>
+        <v>0.3688046801716363</v>
       </c>
       <c r="D4">
-        <v>0.2266048251956944</v>
+        <v>0.2639536099994781</v>
       </c>
       <c r="E4">
-        <v>0.4760302776039508</v>
+        <v>0.5137641579552608</v>
       </c>
       <c r="F4">
-        <v>0.4054553575916278</v>
+        <v>0.4172513277134101</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.323052878118673</v>
+        <v>0.3213959399964313</v>
       </c>
       <c r="C5">
-        <v>0.3688046801716363</v>
+        <v>0.3527736814977633</v>
       </c>
       <c r="D5">
-        <v>0.2639536099994781</v>
+        <v>0.2405711618554991</v>
       </c>
       <c r="E5">
-        <v>0.5137641579552608</v>
+        <v>0.4904805417705163</v>
       </c>
       <c r="F5">
-        <v>0.4172513277134101</v>
+        <v>0.3885915500499728</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.3213959399964313</v>
+        <v>0.3040077233811113</v>
       </c>
       <c r="C6">
-        <v>0.3527736814977633</v>
+        <v>0.3040077233811113</v>
       </c>
       <c r="D6">
-        <v>0.2405711618554991</v>
+        <v>0.2525516835738419</v>
       </c>
       <c r="E6">
-        <v>0.4904805417705163</v>
+        <v>0.5025452055027905</v>
       </c>
       <c r="F6">
-        <v>0.3885915500499728</v>
+        <v>0.4218095774931774</v>
       </c>
       <c r="G6">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.3040077233811113</v>
+        <v>0.3195075457514495</v>
       </c>
       <c r="C7">
-        <v>0.3040077233811113</v>
+        <v>0.3344878761007612</v>
       </c>
       <c r="D7">
-        <v>0.2525516835738419</v>
+        <v>0.2334815320987104</v>
       </c>
       <c r="E7">
-        <v>0.5025452055027905</v>
+        <v>0.4831992674856931</v>
       </c>
       <c r="F7">
-        <v>0.4218095774931774</v>
+        <v>0.3844749898822031</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.3195075457514495</v>
+        <v>0.3427370110204659</v>
       </c>
       <c r="C8">
-        <v>0.3344878761007612</v>
+        <v>0.3605818570417189</v>
       </c>
       <c r="D8">
-        <v>0.2334815320987104</v>
+        <v>0.2023703037307001</v>
       </c>
       <c r="E8">
-        <v>0.4831992674856931</v>
+        <v>0.4498558699524772</v>
       </c>
       <c r="F8">
-        <v>0.3844749898822031</v>
+        <v>0.3114971130477678</v>
       </c>
       <c r="G8">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.4513396938152655</v>
+        <v>0.2987280035122604</v>
       </c>
       <c r="C9">
-        <v>0.4513396938152655</v>
+        <v>0.2987280035122604</v>
       </c>
       <c r="D9">
-        <v>0.2671320870154189</v>
+        <v>0.1585806734357395</v>
       </c>
       <c r="E9">
-        <v>0.5168482243516165</v>
+        <v>0.3982218896993729</v>
       </c>
       <c r="F9">
-        <v>0.275879468903711</v>
+        <v>0.2844280147574629</v>
       </c>
       <c r="G9">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1308504580670433</v>
+        <v>0.2911926455816474</v>
       </c>
       <c r="C10">
-        <v>0.1308504580670433</v>
+        <v>0.3419929353797495</v>
       </c>
       <c r="D10">
-        <v>0.0229929799516238</v>
+        <v>0.3451110422066679</v>
       </c>
       <c r="E10">
-        <v>0.1516343627006221</v>
+        <v>0.587461524022355</v>
       </c>
       <c r="F10">
-        <v>0.09384405342323576</v>
+        <v>0.5589109611011353</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,19 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.09392443396517081</v>
+        <v>0.2508072428796626</v>
       </c>
       <c r="C11">
-        <v>0.09392443396517081</v>
+        <v>0.4114187230689154</v>
       </c>
       <c r="D11">
-        <v>0.008821799295677731</v>
+        <v>0.3395202396874553</v>
       </c>
       <c r="E11">
-        <v>0.09392443396517081</v>
+        <v>0.5826836531836596</v>
+      </c>
+      <c r="F11">
+        <v>0.5880220729345085</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/3_naive_forecaster_qoq_evaluations_20221_21001/AVERAGE_10_9_qoq_forecast_error_table_latest_eval_20221_21001.xlsx
+++ b/1_Result_Tables/3_naive_forecaster_qoq_evaluations_20221_21001/AVERAGE_10_9_qoq_forecast_error_table_latest_eval_20221_21001.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.2400528213269932</v>
+        <v>0.1724578193461484</v>
       </c>
       <c r="C2">
-        <v>0.3753181292658889</v>
+        <v>0.39058239716261</v>
       </c>
       <c r="D2">
-        <v>0.2348887549825461</v>
+        <v>0.3033305724894426</v>
       </c>
       <c r="E2">
-        <v>0.4846532316848265</v>
+        <v>0.550754548314803</v>
       </c>
       <c r="F2">
-        <v>0.4369199514236829</v>
+        <v>0.5414156770869448</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.273599112058131</v>
+        <v>0.2400528213269932</v>
       </c>
       <c r="C3">
-        <v>0.3783303919539526</v>
+        <v>0.3753181292658889</v>
       </c>
       <c r="D3">
-        <v>0.2266048251956944</v>
+        <v>0.2348887549825461</v>
       </c>
       <c r="E3">
-        <v>0.4760302776039508</v>
+        <v>0.4846532316848265</v>
       </c>
       <c r="F3">
-        <v>0.4054553575916278</v>
+        <v>0.4369199514236829</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.323052878118673</v>
+        <v>0.273599112058131</v>
       </c>
       <c r="C4">
-        <v>0.3688046801716363</v>
+        <v>0.3783303919539526</v>
       </c>
       <c r="D4">
-        <v>0.2639536099994781</v>
+        <v>0.2266048251956944</v>
       </c>
       <c r="E4">
-        <v>0.5137641579552608</v>
+        <v>0.4760302776039508</v>
       </c>
       <c r="F4">
-        <v>0.4172513277134101</v>
+        <v>0.4054553575916278</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.3213959399964313</v>
+        <v>0.323052878118673</v>
       </c>
       <c r="C5">
-        <v>0.3527736814977633</v>
+        <v>0.3688046801716363</v>
       </c>
       <c r="D5">
-        <v>0.2405711618554991</v>
+        <v>0.2639536099994781</v>
       </c>
       <c r="E5">
-        <v>0.4904805417705163</v>
+        <v>0.5137641579552608</v>
       </c>
       <c r="F5">
-        <v>0.3885915500499728</v>
+        <v>0.4172513277134101</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.3040077233811113</v>
+        <v>0.3213959399964313</v>
       </c>
       <c r="C6">
-        <v>0.3040077233811113</v>
+        <v>0.3527736814977633</v>
       </c>
       <c r="D6">
-        <v>0.2525516835738419</v>
+        <v>0.2405711618554991</v>
       </c>
       <c r="E6">
-        <v>0.5025452055027905</v>
+        <v>0.4904805417705163</v>
       </c>
       <c r="F6">
-        <v>0.4218095774931774</v>
+        <v>0.3885915500499728</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.3195075457514495</v>
+        <v>0.3040077233811113</v>
       </c>
       <c r="C7">
-        <v>0.3344878761007612</v>
+        <v>0.3040077233811113</v>
       </c>
       <c r="D7">
-        <v>0.2334815320987104</v>
+        <v>0.2525516835738419</v>
       </c>
       <c r="E7">
-        <v>0.4831992674856931</v>
+        <v>0.5025452055027905</v>
       </c>
       <c r="F7">
-        <v>0.3844749898822031</v>
+        <v>0.4218095774931774</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.3427370110204659</v>
+        <v>0.3195075457514495</v>
       </c>
       <c r="C8">
-        <v>0.3605818570417189</v>
+        <v>0.3344878761007612</v>
       </c>
       <c r="D8">
-        <v>0.2023703037307001</v>
+        <v>0.2334815320987104</v>
       </c>
       <c r="E8">
-        <v>0.4498558699524772</v>
+        <v>0.4831992674856931</v>
       </c>
       <c r="F8">
-        <v>0.3114971130477678</v>
+        <v>0.3844749898822031</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.2987280035122604</v>
+        <v>0.3427370110204659</v>
       </c>
       <c r="C9">
-        <v>0.2987280035122604</v>
+        <v>0.3605818570417189</v>
       </c>
       <c r="D9">
-        <v>0.1585806734357395</v>
+        <v>0.2023703037307001</v>
       </c>
       <c r="E9">
-        <v>0.3982218896993729</v>
+        <v>0.4498558699524772</v>
       </c>
       <c r="F9">
-        <v>0.2844280147574629</v>
+        <v>0.3114971130477678</v>
       </c>
       <c r="G9">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.2911926455816474</v>
+        <v>0.2987280035122604</v>
       </c>
       <c r="C10">
-        <v>0.3419929353797495</v>
+        <v>0.2987280035122604</v>
       </c>
       <c r="D10">
-        <v>0.3451110422066679</v>
+        <v>0.1585806734357395</v>
       </c>
       <c r="E10">
-        <v>0.587461524022355</v>
+        <v>0.3982218896993729</v>
       </c>
       <c r="F10">
-        <v>0.5589109611011353</v>
+        <v>0.2844280147574629</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.2508072428796626</v>
+        <v>0.2911926455816474</v>
       </c>
       <c r="C11">
-        <v>0.4114187230689154</v>
+        <v>0.3419929353797495</v>
       </c>
       <c r="D11">
-        <v>0.3395202396874553</v>
+        <v>0.3451110422066679</v>
       </c>
       <c r="E11">
-        <v>0.5826836531836596</v>
+        <v>0.587461524022355</v>
       </c>
       <c r="F11">
-        <v>0.5880220729345085</v>
+        <v>0.5589109611011353</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/3_naive_forecaster_qoq_evaluations_20221_21001/AVERAGE_10_9_qoq_forecast_error_table_latest_eval_20221_21001.xlsx
+++ b/1_Result_Tables/3_naive_forecaster_qoq_evaluations_20221_21001/AVERAGE_10_9_qoq_forecast_error_table_latest_eval_20221_21001.xlsx
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.3427370110204659</v>
+        <v>0.4513396938152655</v>
       </c>
       <c r="C9">
-        <v>0.3605818570417189</v>
+        <v>0.4513396938152655</v>
       </c>
       <c r="D9">
-        <v>0.2023703037307001</v>
+        <v>0.2671320870154189</v>
       </c>
       <c r="E9">
-        <v>0.4498558699524772</v>
+        <v>0.5168482243516165</v>
       </c>
       <c r="F9">
-        <v>0.3114971130477678</v>
+        <v>0.275879468903711</v>
       </c>
       <c r="G9">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.2987280035122604</v>
+        <v>0.1308504580670433</v>
       </c>
       <c r="C10">
-        <v>0.2987280035122604</v>
+        <v>0.1308504580670433</v>
       </c>
       <c r="D10">
-        <v>0.1585806734357395</v>
+        <v>0.0229929799516238</v>
       </c>
       <c r="E10">
-        <v>0.3982218896993729</v>
+        <v>0.1516343627006221</v>
       </c>
       <c r="F10">
-        <v>0.2844280147574629</v>
+        <v>0.09384405342323576</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,19 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.2911926455816474</v>
+        <v>-0.09392443396517081</v>
       </c>
       <c r="C11">
-        <v>0.3419929353797495</v>
+        <v>0.09392443396517081</v>
       </c>
       <c r="D11">
-        <v>0.3451110422066679</v>
+        <v>0.008821799295677731</v>
       </c>
       <c r="E11">
-        <v>0.587461524022355</v>
-      </c>
-      <c r="F11">
-        <v>0.5589109611011353</v>
+        <v>0.09392443396517081</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
